--- a/registros_excel/2024-02-06.xlsx
+++ b/registros_excel/2024-02-06.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,21 +476,26 @@
           <t>Hora Salida</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Rango</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1010101010</t>
+          <t>1054398414</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Julian</t>
+          <t>Julian Largo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gerencial</t>
+          <t>Administrativa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -500,34 +505,39 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>08:21:23</t>
+          <t>07:32:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>08:21:23</t>
+          <t>07:32:47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08:21:23</t>
+          <t>07:32:47</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Entrada AM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1010101010</t>
+          <t>10267084</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Julian</t>
+          <t>Ruben Lopez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gerencial</t>
+          <t>Administrativa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,54 +547,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08:30:02</t>
+          <t>08:19:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08:21:23</t>
+          <t>08:19:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08:30:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1058325678</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>David R</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Administrativa</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2024-02-06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>13:24:02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>13:24:02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>13:24:02</t>
+          <t>08:19:00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Entrada AM</t>
         </is>
       </c>
     </row>

--- a/registros_excel/2024-02-06.xlsx
+++ b/registros_excel/2024-02-06.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,43 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1058325678</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>David R</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Administrativa</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>13:24:02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13:24:02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>13:24:02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
